--- a/retenciones_declaradas_sin_cruzar_en_profit.xlsx
+++ b/retenciones_declaradas_sin_cruzar_en_profit.xlsx
@@ -1,37 +1,333 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\validacion-ret-iva-seniat\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12D30F41-1C43-4B2C-85D8-905C47AB1A39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="95">
+  <si>
+    <t>Rif Agente Retención</t>
+  </si>
+  <si>
+    <t>Agente Retención</t>
+  </si>
+  <si>
+    <t>Nro.Documento</t>
+  </si>
+  <si>
+    <t>Nro. Control Documento</t>
+  </si>
+  <si>
+    <t>Fecha Documento</t>
+  </si>
+  <si>
+    <t>fec_emis</t>
+  </si>
+  <si>
+    <t>Monto del Documento</t>
+  </si>
+  <si>
+    <t>Monto Retenido</t>
+  </si>
+  <si>
+    <t>J001083081</t>
+  </si>
+  <si>
+    <t>PANMIL, C.A.</t>
+  </si>
+  <si>
+    <t>10003</t>
+  </si>
+  <si>
+    <t>00-00011344</t>
+  </si>
+  <si>
+    <t>10-10-2024</t>
+  </si>
+  <si>
+    <t>J001646280</t>
+  </si>
+  <si>
+    <t>PANADERIA BISCOTTI C.A.</t>
+  </si>
+  <si>
+    <t>9702</t>
+  </si>
+  <si>
+    <t>00-00011043</t>
+  </si>
+  <si>
+    <t>26-09-2024</t>
+  </si>
+  <si>
+    <t>9850</t>
+  </si>
+  <si>
+    <t>00-00011191</t>
+  </si>
+  <si>
+    <t>02-10-2024</t>
+  </si>
+  <si>
+    <t>J003102300</t>
+  </si>
+  <si>
+    <t>SUPERMERCADO RIO MAR, C.A.</t>
+  </si>
+  <si>
+    <t>9738</t>
+  </si>
+  <si>
+    <t>00-00011079</t>
+  </si>
+  <si>
+    <t>27-09-2024</t>
+  </si>
+  <si>
+    <t>J297893490</t>
+  </si>
+  <si>
+    <t>PANADERIA NOVA DELI, C.A.</t>
+  </si>
+  <si>
+    <t>10096</t>
+  </si>
+  <si>
+    <t>00-00011437</t>
+  </si>
+  <si>
+    <t>15-10-2024</t>
+  </si>
+  <si>
+    <t>J306501860</t>
+  </si>
+  <si>
+    <t>PANADERIA Y PASTELERIA DELICIAS DEL PAN, C.A.</t>
+  </si>
+  <si>
+    <t>10038</t>
+  </si>
+  <si>
+    <t>00-00011379</t>
+  </si>
+  <si>
+    <t>11-10-2024</t>
+  </si>
+  <si>
+    <t>J306674241</t>
+  </si>
+  <si>
+    <t>COMERCIAL EL TEQUEJUMBO, C.A.</t>
+  </si>
+  <si>
+    <t>9391</t>
+  </si>
+  <si>
+    <t>00-00010732</t>
+  </si>
+  <si>
+    <t>06-09-2024</t>
+  </si>
+  <si>
+    <t>J306749250</t>
+  </si>
+  <si>
+    <t>PANADERIA Y PASTELERIA DIMARY CA</t>
+  </si>
+  <si>
+    <t>9827</t>
+  </si>
+  <si>
+    <t>00-00011168</t>
+  </si>
+  <si>
+    <t>03-10-2024</t>
+  </si>
+  <si>
+    <t>9904</t>
+  </si>
+  <si>
+    <t>00-00011245</t>
+  </si>
+  <si>
+    <t>09-10-2024</t>
+  </si>
+  <si>
+    <t>9957</t>
+  </si>
+  <si>
+    <t>00-00011298</t>
+  </si>
+  <si>
+    <t>10052</t>
+  </si>
+  <si>
+    <t>00-00011393</t>
+  </si>
+  <si>
+    <t>J308129194</t>
+  </si>
+  <si>
+    <t>GRAN MAJESTIC II PANADERIA Y PASTELERIA CA</t>
+  </si>
+  <si>
+    <t>9874</t>
+  </si>
+  <si>
+    <t>00-00011215</t>
+  </si>
+  <si>
+    <t>J308445240</t>
+  </si>
+  <si>
+    <t>CORPORACION BAGATELLE, C.A.</t>
+  </si>
+  <si>
+    <t>10040</t>
+  </si>
+  <si>
+    <t>00-00011381</t>
+  </si>
+  <si>
+    <t>10041</t>
+  </si>
+  <si>
+    <t>00-00011382</t>
+  </si>
+  <si>
+    <t>J313746657</t>
+  </si>
+  <si>
+    <t>INVERSIONES JF 2005 08-01, C.A.</t>
+  </si>
+  <si>
+    <t>9648</t>
+  </si>
+  <si>
+    <t>00-010989</t>
+  </si>
+  <si>
+    <t>01-10-2024</t>
+  </si>
+  <si>
+    <t>9855</t>
+  </si>
+  <si>
+    <t>00-011196</t>
+  </si>
+  <si>
+    <t>J314364634</t>
+  </si>
+  <si>
+    <t>PASTELERIA EMPERATRIZ BAKERY DELY C.A</t>
+  </si>
+  <si>
+    <t>9826</t>
+  </si>
+  <si>
+    <t>00-00011167</t>
+  </si>
+  <si>
+    <t>9958</t>
+  </si>
+  <si>
+    <t>00-00011299</t>
+  </si>
+  <si>
+    <t>08-10-2024</t>
+  </si>
+  <si>
+    <t>J315217430</t>
+  </si>
+  <si>
+    <t>PANADERIA Y PASTELERIA VICTORIA DELI, C.A.</t>
+  </si>
+  <si>
+    <t>9766</t>
+  </si>
+  <si>
+    <t>00-00011107</t>
+  </si>
+  <si>
+    <t>J315919346</t>
+  </si>
+  <si>
+    <t>ALIMENTOS LA MONTAñA DE ORO, C.A</t>
+  </si>
+  <si>
+    <t>9210</t>
+  </si>
+  <si>
+    <t>00-00010551</t>
+  </si>
+  <si>
+    <t>07-10-2024</t>
+  </si>
+  <si>
+    <t>J408223449</t>
+  </si>
+  <si>
+    <t>LA MANSION DE LA FAMILIA PANADERIA Y PASTELERIA, C.A.</t>
+  </si>
+  <si>
+    <t>9971</t>
+  </si>
+  <si>
+    <t>00-00011312</t>
+  </si>
+  <si>
+    <t>14-10-2024</t>
+  </si>
+  <si>
+    <t>J500302053</t>
+  </si>
+  <si>
+    <t>PANADERIA PASTELERIA PAULA BAKERY DELY, C.A.</t>
+  </si>
+  <si>
+    <t>10081</t>
+  </si>
+  <si>
+    <t>00-00011422</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +342,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,54 +666,615 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="B1:H1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="54.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Rif Agente Retención</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Agente Retención</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Nro. Control Documento</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Fecha Documento</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>fec_emis</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Monto del Documento</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Monto Retenido</t>
-        </is>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2">
+        <v>6959.52</v>
+      </c>
+      <c r="I2">
+        <v>388.11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3">
+        <v>3238.44</v>
+      </c>
+      <c r="I3">
+        <v>446.68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4">
+        <v>2638.58</v>
+      </c>
+      <c r="I4">
+        <v>363.94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5">
+        <v>7811.19</v>
+      </c>
+      <c r="I5">
+        <v>627.44000000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6">
+        <v>1480.15</v>
+      </c>
+      <c r="I6">
+        <v>204.16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>41</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7">
+        <v>10470.469999999999</v>
+      </c>
+      <c r="I7">
+        <v>548.94000000000005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>42</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8">
+        <v>3050.32</v>
+      </c>
+      <c r="I8">
+        <v>420.73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>43</v>
+      </c>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9">
+        <v>7085.81</v>
+      </c>
+      <c r="I9">
+        <v>297.77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>44</v>
+      </c>
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10">
+        <v>5834.28</v>
+      </c>
+      <c r="I10">
+        <v>385.51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>45</v>
+      </c>
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11">
+        <v>6104.72</v>
+      </c>
+      <c r="I11">
+        <v>304.02999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>46</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12">
+        <v>4791.1000000000004</v>
+      </c>
+      <c r="I12">
+        <v>51.78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>53</v>
+      </c>
+      <c r="B13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13">
+        <v>6670.45</v>
+      </c>
+      <c r="I13">
+        <v>48.07</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>69</v>
+      </c>
+      <c r="B14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14">
+        <v>8884.69</v>
+      </c>
+      <c r="I14">
+        <v>158.55000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>70</v>
+      </c>
+      <c r="B15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15">
+        <v>5224.72</v>
+      </c>
+      <c r="I15">
+        <v>720.65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>80</v>
+      </c>
+      <c r="B16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" t="s">
+        <v>67</v>
+      </c>
+      <c r="H16">
+        <v>1469.85</v>
+      </c>
+      <c r="I16">
+        <v>202.77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>81</v>
+      </c>
+      <c r="B17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" t="s">
+        <v>67</v>
+      </c>
+      <c r="H17">
+        <v>2214.73</v>
+      </c>
+      <c r="I17">
+        <v>305.48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>82</v>
+      </c>
+      <c r="B18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18">
+        <v>1809.35</v>
+      </c>
+      <c r="I18">
+        <v>127.02</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>83</v>
+      </c>
+      <c r="B19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" t="s">
+        <v>74</v>
+      </c>
+      <c r="E19" t="s">
+        <v>75</v>
+      </c>
+      <c r="F19" t="s">
+        <v>76</v>
+      </c>
+      <c r="H19">
+        <v>2552.1999999999998</v>
+      </c>
+      <c r="I19">
+        <v>264.02</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>84</v>
+      </c>
+      <c r="B20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" t="s">
+        <v>80</v>
+      </c>
+      <c r="F20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20">
+        <v>4592.8999999999996</v>
+      </c>
+      <c r="I20">
+        <v>473.29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>89</v>
+      </c>
+      <c r="B21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" t="s">
+        <v>83</v>
+      </c>
+      <c r="E21" t="s">
+        <v>84</v>
+      </c>
+      <c r="F21" t="s">
+        <v>85</v>
+      </c>
+      <c r="H21">
+        <v>5491.66</v>
+      </c>
+      <c r="I21">
+        <v>460.11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>97</v>
+      </c>
+      <c r="B22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" t="s">
+        <v>88</v>
+      </c>
+      <c r="E22" t="s">
+        <v>89</v>
+      </c>
+      <c r="F22" t="s">
+        <v>90</v>
+      </c>
+      <c r="H22">
+        <v>3735.69</v>
+      </c>
+      <c r="I22">
+        <v>82.96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>98</v>
+      </c>
+      <c r="B23" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" t="s">
+        <v>93</v>
+      </c>
+      <c r="E23" t="s">
+        <v>94</v>
+      </c>
+      <c r="F23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H23">
+        <v>5617.39</v>
+      </c>
+      <c r="I23">
+        <v>774.81</v>
       </c>
     </row>
   </sheetData>
